--- a/workOnExcel/messages.xlsx
+++ b/workOnExcel/messages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>index</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>michal</t>
+  </si>
+  <si>
+    <t>hi manager how are you</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,6 +467,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
